--- a/ВОЛС/Data processing/лаб5 волс.xlsx
+++ b/ВОЛС/Data processing/лаб5 волс.xlsx
@@ -1,26 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Study\ВОЛС\Data processing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28085A-325A-4782-84DD-5B3D350807C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">λ = 1310 нм </t>
+  </si>
+  <si>
+    <t>дБ</t>
+  </si>
+  <si>
+    <t>дБм</t>
+  </si>
+  <si>
+    <t>мВт</t>
+  </si>
+  <si>
+    <t>Вывод для подключения измерителя</t>
+  </si>
+  <si>
+    <t>Избыточные потери ELi</t>
+  </si>
+  <si>
+    <t>Вывод для подключения источника</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>1310&amp;1490 нм</t>
+  </si>
+  <si>
+    <t>1550 нм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λ = 1550 нм </t>
+  </si>
+  <si>
+    <t>Матрица переключения</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +84,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -45,15 +128,366 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +764,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
+    <col min="3" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="17.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
+    <col min="11" max="11" width="18" style="4" customWidth="1"/>
+    <col min="12" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="17.42578125" style="4" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="24"/>
+      <c r="P4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="33"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="23"/>
+      <c r="P8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="24"/>
+      <c r="P9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="35"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="M14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ВОЛС/Data processing/лаб5 волс.xlsx
+++ b/ВОЛС/Data processing/лаб5 волс.xlsx
@@ -1,26 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Study\Study\ВОЛС\Data processing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04359BFF-2B80-4BA0-ABA6-39E5C5B7A365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">λ = 1310 нм </t>
+  </si>
+  <si>
+    <t>дБ</t>
+  </si>
+  <si>
+    <t>дБм</t>
+  </si>
+  <si>
+    <t>Вывод для подключения измерителя</t>
+  </si>
+  <si>
+    <t>Избыточные потери ELi</t>
+  </si>
+  <si>
+    <t>Вывод для подключения источника</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>1310&amp;1490 нм</t>
+  </si>
+  <si>
+    <t>1550 нм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">λ = 1550 нм </t>
+  </si>
+  <si>
+    <t>Матрица переключения</t>
+  </si>
+  <si>
+    <t>Логарифмическая матрица переключения</t>
+  </si>
+  <si>
+    <t>мкВт</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +85,256 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +343,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +717,991 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26:R35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="29" customWidth="1"/>
+    <col min="3" max="8" width="9.109375" style="29"/>
+    <col min="9" max="9" width="17.33203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="29"/>
+    <col min="11" max="11" width="18" style="29" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="29" customWidth="1"/>
+    <col min="13" max="18" width="9.109375" style="29"/>
+    <col min="19" max="19" width="17.44140625" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="14"/>
+      <c r="K2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="24"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <f>-10*LOG10(SUM(C15:H17))</f>
+        <v>-2.7152408910556662</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9">
+        <v>-30.18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>-0.94199999999999995</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="26">
+        <f>-10*LOG10(SUM(M15:R17))</f>
+        <v>-2.570462982079889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-1.04</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-68.099999999999994</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="6">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="9">
+        <v>-30.744</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>-1.516</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="6">
+        <f>10^(C4/10)*1000</f>
+        <v>907.40255962286903</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7">
+        <v>788.2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="6">
+        <f>10^(M4/10)*1000</f>
+        <v>873.97699259058902</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>704.8</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="28"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-0.48199999999999998</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-85.6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" ref="I6" si="0">-10*LOG10(SUM(C18:H20))</f>
+        <v>-2.7707210887176585</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="7">
+        <v>-30.12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>-46.83</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="26">
+        <f t="shared" ref="S6" si="1">-10*LOG10(SUM(M18:R20))</f>
+        <v>-2.9427960670557334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="7">
+        <v>-0.88800000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-86</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="7">
+        <v>-30.712</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>-47.3</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="7">
+        <v>810</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6">
+        <f>10^(E7/10)*1000</f>
+        <v>907.40255962286903</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.2E-5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="7">
+        <v>847</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="6">
+        <f>10^(O7/10)*1000</f>
+        <v>873.97699259058902</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-68.417000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>-85.7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <f>-10*LOG10(SUM(C21:H23))</f>
+        <v>-1.1486707103308893E-7</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-1.022</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-46.88</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="26">
+        <f t="shared" ref="S9" si="2">-10*LOG10(SUM(M21:R23))</f>
+        <v>-2.5245758666041578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7">
+        <v>-68.838999999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>-86.1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="7">
+        <v>-1.6220000000000001</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>-47</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1.2E-5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6">
+        <f>10^(G10/10)*1000</f>
+        <v>907.40255962286903</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="8">
+        <v>689</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>10^(Q10/10)*1000</f>
+        <v>873.97699259058902</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="28"/>
+    </row>
+    <row r="14" spans="1:19" ht="21" x14ac:dyDescent="0.3">
+      <c r="C14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="M14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C15" s="31">
+        <f>C5/$C$5</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31">
+        <f>E5/$C$5</f>
+        <v>0.86863321206366062</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31">
+        <f>G5/$C$5</f>
+        <v>1.1020467039630305E-7</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="M15" s="31">
+        <f>M5/$M$5</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31">
+        <f t="shared" ref="N15:Q15" si="3">O5/$M$5</f>
+        <v>9.3823980144992856E-4</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31">
+        <f t="shared" si="3"/>
+        <v>0.80642855129501179</v>
+      </c>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C18" s="31">
+        <f t="shared" ref="C16:G23" si="4">C8/$C$5</f>
+        <v>0.89265783021005463</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3224560447556365E-8</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="M18" s="31">
+        <f t="shared" ref="M16:Q21" si="5">M8/$M$5</f>
+        <v>0.96913306320498727</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31">
+        <f t="shared" si="5"/>
+        <v>2.0595507836705747E-5</v>
+      </c>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C21" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3224560447556365E-8</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31">
+        <f t="shared" si="4"/>
+        <v>1.3224560447556365E-8</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="M21" s="31">
+        <f t="shared" si="5"/>
+        <v>0.78835027219390341</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31">
+        <f t="shared" si="5"/>
+        <v>2.0595507836705747E-5</v>
+      </c>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="26" spans="3:18" ht="21" x14ac:dyDescent="0.3">
+      <c r="C26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="M26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C27" s="31">
+        <f>-10*LOG10(C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31">
+        <f t="shared" ref="E27:H27" si="6">-10*LOG10(E15)</f>
+        <v>0.61163569470415691</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31">
+        <f t="shared" ref="G27:H27" si="7">-10*LOG10(G15)</f>
+        <v>69.578000000000003</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="M27" s="31">
+        <f>-10*LOG10(M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31">
+        <f t="shared" ref="O27:R27" si="8">-10*LOG10(O15)</f>
+        <v>30.276861476162832</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31">
+        <f t="shared" ref="Q27:R27" si="9">-10*LOG10(Q15)</f>
+        <v>0.93434104596008472</v>
+      </c>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C30" s="31">
+        <f t="shared" ref="C30" si="10">-10*LOG10(C18)</f>
+        <v>0.49314981121350232</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31">
+        <f t="shared" ref="E30:F30" si="11">-10*LOG10(E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31">
+        <f t="shared" ref="G30:H30" si="12">-10*LOG10(G18)</f>
+        <v>78.786187539523752</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="M30" s="31">
+        <f t="shared" ref="M30:Q30" si="13">-10*LOG10(M18)</f>
+        <v>0.1361658966929303</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31">
+        <f t="shared" si="13"/>
+        <v>46.862274948966942</v>
+      </c>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C33" s="31">
+        <f t="shared" ref="C33" si="14">-10*LOG10(C21)</f>
+        <v>78.786187539523752</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31">
+        <f t="shared" ref="E33:F33" si="15">-10*LOG10(E21)</f>
+        <v>78.786187539523752</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31">
+        <f t="shared" ref="G33:H33" si="16">-10*LOG10(G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="M33" s="31">
+        <f t="shared" ref="M33:Q33" si="17">-10*LOG10(M21)</f>
+        <v>1.0328077809237415</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31">
+        <f t="shared" si="17"/>
+        <v>46.862274948966942</v>
+      </c>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="31"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="C33:D35"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:H35"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="M27:N29"/>
+    <mergeCell ref="O27:P29"/>
+    <mergeCell ref="Q27:R29"/>
+    <mergeCell ref="M30:N32"/>
+    <mergeCell ref="O30:P32"/>
+    <mergeCell ref="Q30:R32"/>
+    <mergeCell ref="M33:N35"/>
+    <mergeCell ref="O33:P35"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="C27:D29"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="G27:H29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="E30:F32"/>
+    <mergeCell ref="G30:H32"/>
+    <mergeCell ref="O21:P23"/>
+    <mergeCell ref="Q21:R23"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="O15:P17"/>
+    <mergeCell ref="Q15:R17"/>
+    <mergeCell ref="M18:N20"/>
+    <mergeCell ref="O18:P20"/>
+    <mergeCell ref="Q18:R20"/>
+    <mergeCell ref="C21:D23"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="M15:N17"/>
+    <mergeCell ref="M21:N23"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="G18:H20"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="K2:K11"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="S3:S5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>